--- a/工作安排.xlsx
+++ b/工作安排.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$1:$K$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$20</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="75">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,27 +188,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saas系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员操作界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备份和现有的区别展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留有一点页面内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aliyun有个安全组，可以直接配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁三saas前端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC端开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量页面没有seo，核心有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细节bug修改-手机验证码登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要进一步测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>个人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>saas系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员操作界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>O</t>
+    <t>数据层设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -216,35 +316,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>文章管理、图片管理功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海外包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备份和现有的区别展示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>留有一点页面内容</t>
+    <t>D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -315,7 +395,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF3399FF"/>
+          <bgColor rgb="FFFF3300"/>
         </patternFill>
       </fill>
     </dxf>
@@ -325,7 +405,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF808080"/>
+          <bgColor rgb="FFFF0066"/>
         </patternFill>
       </fill>
     </dxf>
@@ -345,7 +425,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0066"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -355,7 +435,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF3300"/>
+          <bgColor rgb="FF3399FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -644,19 +724,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="1" customWidth="1"/>
     <col min="4" max="4" width="32.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.375" style="1" customWidth="1"/>
     <col min="8" max="9" width="16.875" style="1" customWidth="1"/>
@@ -728,82 +808,82 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="F3" s="2">
-        <v>42812</v>
+        <v>42818</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="F4" s="2">
-        <v>42814</v>
+        <v>42818</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="F5" s="2">
-        <v>42814</v>
+        <v>42818</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="2">
-        <v>42814</v>
+        <v>44</v>
+      </c>
+      <c r="F6" s="3">
+        <v>42767</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
@@ -820,7 +900,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F7" s="2">
         <v>42804</v>
@@ -831,223 +911,373 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="F8" s="2">
-        <v>42811</v>
-      </c>
-      <c r="G8" s="2">
-        <v>42818</v>
+        <v>42814</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="2">
-        <v>42810</v>
-      </c>
-      <c r="G9" s="2">
-        <v>42816</v>
+        <v>42807</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="3">
-        <v>42767</v>
+      <c r="F10" s="2">
+        <v>42810</v>
+      </c>
+      <c r="G10" s="2">
+        <v>42816</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="F11" s="2">
-        <v>42807</v>
+        <v>42812</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="2">
-        <v>42808</v>
-      </c>
-      <c r="G12" s="2">
-        <v>42816</v>
-      </c>
-      <c r="H12" s="1">
-        <v>2</v>
-      </c>
+        <v>42807</v>
+      </c>
+      <c r="G12" s="2"/>
       <c r="I12" s="2">
-        <v>42814</v>
+        <v>42811</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="F13" s="2">
-        <v>42812</v>
+        <v>42808</v>
       </c>
       <c r="G13" s="2">
-        <v>42812</v>
+        <v>42816</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2</v>
       </c>
       <c r="I13" s="2">
-        <v>42812</v>
+        <v>42810</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>53</v>
+        <v>25</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="2">
-        <v>42807</v>
-      </c>
-      <c r="G14" s="2"/>
+        <v>42808</v>
+      </c>
+      <c r="G14" s="2">
+        <v>42816</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
       <c r="I14" s="2">
-        <v>42811</v>
+        <v>42814</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="2">
-        <v>42808</v>
+        <v>42811</v>
       </c>
       <c r="G15" s="2">
-        <v>42816</v>
-      </c>
-      <c r="H15" s="1">
-        <v>2</v>
+        <v>42818</v>
       </c>
       <c r="I15" s="2">
-        <v>42810</v>
+        <v>42818</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="2">
+        <v>42812</v>
+      </c>
+      <c r="G16" s="2">
+        <v>42812</v>
+      </c>
+      <c r="I16" s="2">
+        <v>42812</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="2">
+        <v>42814</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="I17" s="2">
+        <v>42814</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="2">
+        <v>42814</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="I18" s="2">
+        <v>42818</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="2">
+        <v>42814</v>
+      </c>
+      <c r="G19" s="2">
+        <v>42815</v>
+      </c>
+      <c r="I19" s="2">
+        <v>42815</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="2">
+        <v>42814</v>
+      </c>
+      <c r="G20" s="2">
+        <v>42818</v>
+      </c>
+      <c r="H20" s="1">
+        <v>5</v>
+      </c>
+      <c r="I20" s="2">
+        <v>42818</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K3">
-    <sortState ref="A2:K15">
-      <sortCondition ref="E1:E3"/>
+  <autoFilter ref="A1:K20">
+    <sortState ref="A2:K20">
+      <sortCondition ref="E1:E20"/>
     </sortState>
   </autoFilter>
   <sortState ref="A1:H1">
@@ -1056,20 +1286,20 @@
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:K1000">
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$E2="A"</formula>
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>$E2="D"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$E2="O"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>$E2="C"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="6">
       <formula>$E2="B"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$E2="C"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>$E2="O"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$E2="D"</formula>
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>$E2="A"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/工作安排.xlsx
+++ b/工作安排.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$29</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="127">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,10 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>七牛云上传图片和视频</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>七牛云图片水印</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,14 +113,218 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>退款退赛和退款不退赛、自动退款</t>
+  </si>
+  <si>
+    <t>修改、删除信息的备份，支持数据恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不排除要改需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛事权限细化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞立时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要赛saas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞立时网站SEO关键字上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台登录及权限管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择:thinkphp框架，原生bootstrap，seajs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要赛saas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saas系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传不同的赛事图片尺寸功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saas系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员操作界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备份和现有的区别展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留有一点页面内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aliyun有个安全组，可以直接配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁三saas前端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC端开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量页面没有seo，核心有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细节bug修改-手机验证码登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要进一步测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据层设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义模板后台数据库设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>退款退赛和退款不退赛、自动退款</t>
-  </si>
-  <si>
-    <t>修改、删除信息的备份，支持数据恢复</t>
+    <t>D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -132,19 +332,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不排除要改需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赛事权限细化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SEO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞立时</t>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录和注册一起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要赛saas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七牛云上传图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七牛云上传视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -152,11 +368,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我要赛saas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞立时网站SEO关键字上传</t>
+    <t>上海外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人报名图片打包下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人报名信息导出成word文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -164,7 +384,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>后台登录及权限管理</t>
+    <t>域名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liyulinbill个人域名实名认证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -172,19 +396,131 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>选择:thinkphp框架，原生bootstrap，seajs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我要赛saas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>saas系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传不同的赛事图片尺寸功能</t>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载word改为页面打印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前就已经认证了的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面打印预览bug修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄铁系列赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛事图片和我要赛手机站图冲突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对接新主机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端bug修改-分页及照片查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄铁系列撒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信/支付宝 支付接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -192,139 +528,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>saas系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员操作界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海外包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备份和现有的区别展示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>留有一点页面内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优对</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aliyun有个安全组，可以直接配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁三saas前端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC端开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大量页面没有seo，核心有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>细节bug修改-手机验证码登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要进一步测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据层设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义模板后台数据库设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文章管理、图片管理功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
+    <t>文章管理功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片管理功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -724,10 +932,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -741,11 +950,12 @@
     <col min="7" max="7" width="11.375" style="1" customWidth="1"/>
     <col min="8" max="9" width="16.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="22.375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="11" max="11" width="12" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -771,272 +981,309 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="F2" s="2">
-        <v>42808</v>
-      </c>
-      <c r="G2" s="2">
-        <v>42816</v>
-      </c>
-      <c r="H2" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+        <v>42825</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="2">
+        <v>42825</v>
+      </c>
+      <c r="G3" s="2">
+        <v>42832</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="2">
-        <v>42818</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F4" s="2">
         <v>42818</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="F5" s="2">
-        <v>42818</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+        <v>42825</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="2">
+        <v>42814</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="2">
+        <v>42823</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="3">
-        <v>42767</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="2">
-        <v>42804</v>
-      </c>
-      <c r="G7" s="2">
-        <v>42811</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="2">
-        <v>42814</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2">
         <v>42807</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="G9" s="2"/>
+      <c r="I9" s="2">
+        <v>42811</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="3">
+        <v>42767</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="I10" s="2">
+        <v>42821</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="2">
+        <v>42804</v>
+      </c>
+      <c r="G11" s="2">
+        <v>42811</v>
+      </c>
+      <c r="I11" s="2">
+        <v>42818</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="2">
+        <v>42808</v>
+      </c>
+      <c r="G12" s="2">
+        <v>42816</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="2">
         <v>42810</v>
       </c>
-      <c r="G10" s="2">
-        <v>42816</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="2">
-        <v>42812</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="2">
-        <v>42807</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="I12" s="2">
-        <v>42811</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="F13" s="2">
         <v>42808</v>
@@ -1048,65 +1295,66 @@
         <v>2</v>
       </c>
       <c r="I13" s="2">
-        <v>42810</v>
+        <v>42814</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="F14" s="2">
         <v>42808</v>
       </c>
-      <c r="G14" s="2">
-        <v>42816</v>
-      </c>
+      <c r="G14" s="2"/>
       <c r="H14" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14" s="2">
-        <v>42814</v>
+        <v>42815</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="2">
         <v>42811</v>
@@ -1118,166 +1366,498 @@
         <v>42818</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="2">
+        <v>42810</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="J16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
         <v>10</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="D17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="2">
         <v>42812</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G17" s="2">
         <v>42812</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I17" s="2">
         <v>42812</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="1">
+      <c r="J17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="2">
-        <v>42814</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="I17" s="2">
-        <v>42814</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
-        <v>13</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="F18" s="2">
         <v>42814</v>
       </c>
       <c r="G18" s="2"/>
       <c r="I18" s="2">
-        <v>42818</v>
+        <v>42814</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="F19" s="2">
         <v>42814</v>
       </c>
-      <c r="G19" s="2">
-        <v>42815</v>
-      </c>
+      <c r="G19" s="2"/>
       <c r="I19" s="2">
-        <v>42815</v>
+        <v>42818</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
-        <v>16</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2">
         <v>42814</v>
       </c>
       <c r="G20" s="2">
+        <v>42815</v>
+      </c>
+      <c r="I20" s="2">
+        <v>42815</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="2">
+        <v>42814</v>
+      </c>
+      <c r="G21" s="2">
         <v>42818</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H21" s="1">
         <v>5</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I21" s="2">
         <v>42818</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>66</v>
+    </row>
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="2">
+        <v>42818</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="I22" s="2">
+        <v>42821</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="2">
+        <v>42818</v>
+      </c>
+      <c r="I23" s="2">
+        <v>42825</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="2">
+        <v>42804</v>
+      </c>
+      <c r="I24" s="2">
+        <v>42821</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="2">
+        <v>42821</v>
+      </c>
+      <c r="G25" s="2">
+        <v>42822</v>
+      </c>
+      <c r="H25" s="1">
+        <v>2</v>
+      </c>
+      <c r="I25" s="2">
+        <v>42822</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="2">
+        <v>42821</v>
+      </c>
+      <c r="G26" s="2">
+        <v>42822</v>
+      </c>
+      <c r="I26" s="2">
+        <v>42823</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="2">
+        <v>42822</v>
+      </c>
+      <c r="G27" s="3">
+        <v>42826</v>
+      </c>
+      <c r="I27" s="2">
+        <v>42822</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="2">
+        <v>42823</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="I28" s="2">
+        <v>42823</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="2">
+        <v>42825</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="I29" s="2">
+        <v>42825</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>11</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="2">
+        <v>42812</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K20">
-    <sortState ref="A2:K20">
-      <sortCondition ref="E1:E20"/>
+  <autoFilter ref="A1:L29">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="A"/>
+        <filter val="B"/>
+        <filter val="C"/>
+        <filter val="D"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A2:L30">
+      <sortCondition ref="E1:E29"/>
     </sortState>
   </autoFilter>
   <sortState ref="A1:H1">
@@ -1285,7 +1865,7 @@
   </sortState>
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K1000">
+  <conditionalFormatting sqref="A2:L1000">
     <cfRule type="expression" dxfId="4" priority="2">
       <formula>$E2="D"</formula>
     </cfRule>

--- a/工作安排.xlsx
+++ b/工作安排.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$31</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="132">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -516,10 +516,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>玄铁系列撒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>微信/支付宝 支付接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -533,6 +529,30 @@
   </si>
   <si>
     <t>图片管理功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限管理重写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -933,10 +953,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1012,8 +1032,11 @@
       <c r="F2" s="2">
         <v>42825</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G2" s="2">
+        <v>42832</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>28</v>
       </c>
@@ -1021,13 +1044,13 @@
         <v>121</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="F3" s="2">
         <v>42825</v>
@@ -1035,25 +1058,44 @@
       <c r="G3" s="2">
         <v>42832</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I3" s="2">
+        <v>42831</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2">
-        <v>42818</v>
+        <v>42825</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="I4" s="2">
+        <v>42825</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -1061,13 +1103,13 @@
         <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>116</v>
@@ -1078,365 +1120,369 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F6" s="2">
-        <v>42814</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+        <v>42818</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="F7" s="2">
         <v>42823</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G7" s="2"/>
+      <c r="I7" s="2">
+        <v>42823</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="F8" s="2">
-        <v>42807</v>
+        <v>42822</v>
+      </c>
+      <c r="G8" s="3">
+        <v>42826</v>
+      </c>
+      <c r="I8" s="2">
+        <v>42822</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="F9" s="2">
-        <v>42807</v>
-      </c>
-      <c r="G9" s="2"/>
+        <v>42821</v>
+      </c>
+      <c r="G9" s="2">
+        <v>42822</v>
+      </c>
       <c r="I9" s="2">
-        <v>42811</v>
+        <v>42823</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="2">
+        <v>42821</v>
+      </c>
+      <c r="G10" s="2">
+        <v>42822</v>
+      </c>
+      <c r="H10" s="1">
         <v>2</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="3">
-        <v>42767</v>
-      </c>
-      <c r="G10" s="2"/>
       <c r="I10" s="2">
-        <v>42821</v>
+        <v>42822</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F11" s="2">
         <v>42804</v>
       </c>
-      <c r="G11" s="2">
-        <v>42811</v>
-      </c>
       <c r="I11" s="2">
-        <v>42818</v>
+        <v>42821</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="F12" s="2">
-        <v>42808</v>
-      </c>
-      <c r="G12" s="2">
-        <v>42816</v>
-      </c>
-      <c r="H12" s="1">
-        <v>2</v>
-      </c>
-      <c r="I12" s="2">
-        <v>42810</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>24</v>
+        <v>42832</v>
       </c>
     </row>
     <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F13" s="2">
-        <v>42808</v>
-      </c>
-      <c r="G13" s="2">
-        <v>42816</v>
-      </c>
-      <c r="H13" s="1">
-        <v>2</v>
+        <v>42818</v>
       </c>
       <c r="I13" s="2">
-        <v>42814</v>
+        <v>42825</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2">
-        <v>42808</v>
+        <v>42818</v>
       </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="1">
-        <v>3</v>
-      </c>
       <c r="I14" s="2">
-        <v>42815</v>
+        <v>42821</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>107</v>
+        <v>77</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F15" s="2">
-        <v>42811</v>
+        <v>42814</v>
       </c>
       <c r="G15" s="2">
         <v>42818</v>
       </c>
+      <c r="H15" s="1">
+        <v>5</v>
+      </c>
       <c r="I15" s="2">
         <v>42818</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F16" s="2">
-        <v>42810</v>
-      </c>
-      <c r="G16" s="2"/>
+        <v>42814</v>
+      </c>
+      <c r="G16" s="2">
+        <v>42815</v>
+      </c>
+      <c r="I16" s="2">
+        <v>42815</v>
+      </c>
       <c r="J16" s="1" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="F17" s="2">
-        <v>42812</v>
-      </c>
-      <c r="G17" s="2">
-        <v>42812</v>
-      </c>
-      <c r="I17" s="2">
-        <v>42812</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>72</v>
+        <v>42823</v>
       </c>
     </row>
     <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>38</v>
@@ -1445,20 +1491,20 @@
         <v>39</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F18" s="2">
         <v>42814</v>
       </c>
       <c r="G18" s="2"/>
       <c r="I18" s="2">
-        <v>42814</v>
+        <v>42818</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>72</v>
@@ -1466,7 +1512,7 @@
     </row>
     <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>38</v>
@@ -1475,379 +1521,385 @@
         <v>39</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2">
         <v>42814</v>
       </c>
       <c r="G19" s="2"/>
       <c r="I19" s="2">
-        <v>42818</v>
+        <v>42814</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F20" s="2">
         <v>42814</v>
       </c>
-      <c r="G20" s="2">
-        <v>42815</v>
-      </c>
-      <c r="I20" s="2">
-        <v>42815</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="F21" s="2">
-        <v>42814</v>
+        <v>42812</v>
       </c>
       <c r="G21" s="2">
-        <v>42818</v>
-      </c>
-      <c r="H21" s="1">
-        <v>5</v>
+        <v>42812</v>
       </c>
       <c r="I21" s="2">
-        <v>42818</v>
+        <v>42812</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F22" s="2">
-        <v>42818</v>
+        <v>42810</v>
       </c>
       <c r="G22" s="2"/>
-      <c r="I22" s="2">
-        <v>42821</v>
-      </c>
       <c r="J22" s="1" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="2">
+        <v>42811</v>
+      </c>
+      <c r="G23" s="2">
         <v>42818</v>
       </c>
       <c r="I23" s="2">
-        <v>42825</v>
+        <v>42818</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2">
-        <v>42804</v>
+        <v>42808</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="1">
+        <v>3</v>
       </c>
       <c r="I24" s="2">
-        <v>42821</v>
+        <v>42815</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="F25" s="2">
-        <v>42821</v>
+        <v>42808</v>
       </c>
       <c r="G25" s="2">
-        <v>42822</v>
+        <v>42816</v>
       </c>
       <c r="H25" s="1">
         <v>2</v>
       </c>
       <c r="I25" s="2">
-        <v>42822</v>
+        <v>42814</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>92</v>
+        <v>73</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="F26" s="2">
-        <v>42821</v>
+        <v>42808</v>
       </c>
       <c r="G26" s="2">
-        <v>42822</v>
+        <v>42816</v>
+      </c>
+      <c r="H26" s="1">
+        <v>2</v>
       </c>
       <c r="I26" s="2">
-        <v>42823</v>
+        <v>42810</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="F27" s="2">
-        <v>42822</v>
-      </c>
-      <c r="G27" s="3">
-        <v>42826</v>
-      </c>
-      <c r="I27" s="2">
-        <v>42822</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>97</v>
+        <v>42812</v>
       </c>
     </row>
     <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="F28" s="2">
-        <v>42823</v>
-      </c>
-      <c r="G28" s="2"/>
+        <v>42804</v>
+      </c>
+      <c r="G28" s="2">
+        <v>42811</v>
+      </c>
       <c r="I28" s="2">
-        <v>42823</v>
+        <v>42818</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F29" s="2">
-        <v>42825</v>
+      <c r="F29" s="3">
+        <v>42767</v>
       </c>
       <c r="G29" s="2"/>
       <c r="I29" s="2">
-        <v>42825</v>
+        <v>42821</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="2">
+        <v>42807</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="I30" s="2">
+        <v>42811</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" s="2">
-        <v>42812</v>
+      <c r="D31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="2">
+        <v>42807</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L29">
+  <autoFilter ref="A1:L31">
     <filterColumn colId="4">
       <filters>
         <filter val="A"/>
@@ -1856,8 +1908,8 @@
         <filter val="D"/>
       </filters>
     </filterColumn>
-    <sortState ref="A2:L30">
-      <sortCondition ref="E1:E29"/>
+    <sortState ref="A2:L31">
+      <sortCondition ref="E1:E31"/>
     </sortState>
   </autoFilter>
   <sortState ref="A1:H1">

--- a/工作安排.xlsx
+++ b/工作安排.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$38</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="161">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,10 +296,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -308,7 +324,143 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>原优先级</t>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录和注册一起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要赛saas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七牛云上传图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七牛云上传视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人报名图片打包下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人报名信息导出成word文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liyulinbill个人域名实名认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载word改为页面打印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前就已经认证了的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面打印预览bug修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄铁系列赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛事图片和我要赛手机站图冲突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对接新主机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -316,43 +468,195 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>BaseModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端bug修改-分页及照片查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信/支付宝 支付接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章管理功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片管理功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限管理重写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug修改与需求改动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳入31项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>转向亮解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug修改完成，需求产品经理和主办方对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Impinj测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码重写-优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面打印-领队和订单详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限设置-导出图片和预览报名信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>登录和注册一起</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我要赛saas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>七牛云上传图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>七牛云上传视频</t>
+    <t>计时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记住IP配置，生成本地配置文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -361,194 +665,6 @@
   </si>
   <si>
     <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海外包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人报名图片打包下载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人报名信息导出成word文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>域名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liyulinbill个人域名实名认证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载word改为页面打印</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>之前就已经认证了的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海外包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面打印预览bug修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玄铁系列赛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赛事图片和我要赛手机站图冲突</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对接新主机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BaseModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端bug修改-分页及照片查看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信/支付宝 支付接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文章管理功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片管理功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限管理重写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -953,10 +1069,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1007,909 +1123,1125 @@
         <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="F2" s="2">
-        <v>42825</v>
-      </c>
-      <c r="G2" s="2">
-        <v>42832</v>
+        <v>42839</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>42839</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="2">
+        <v>42839</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>42839</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>36</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="2">
+        <v>42839</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2">
+        <v>42837</v>
+      </c>
+      <c r="I5" s="2">
+        <v>41743</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2">
+        <v>42835</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="I6" s="2">
+        <v>42835</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="E7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="2">
         <v>42825</v>
       </c>
-      <c r="G3" s="2">
-        <v>42832</v>
-      </c>
-      <c r="I3" s="2">
-        <v>42831</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>27</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2">
-        <v>42825</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="I4" s="2">
-        <v>42825</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K4" s="1" t="s">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>29</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F5" s="2">
-        <v>42825</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F8" s="2">
         <v>42818</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>24</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="2">
-        <v>42823</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="I7" s="2">
-        <v>42823</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>23</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" s="2">
-        <v>42822</v>
-      </c>
-      <c r="G8" s="3">
-        <v>42826</v>
-      </c>
-      <c r="I8" s="2">
-        <v>42822</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="F9" s="2">
-        <v>42821</v>
+        <v>42825</v>
       </c>
       <c r="G9" s="2">
-        <v>42822</v>
+        <v>42832</v>
       </c>
       <c r="I9" s="2">
-        <v>42823</v>
+        <v>42831</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="F10" s="2">
-        <v>42821</v>
-      </c>
-      <c r="G10" s="2">
-        <v>42822</v>
-      </c>
-      <c r="H10" s="1">
-        <v>2</v>
-      </c>
+        <v>42825</v>
+      </c>
+      <c r="G10" s="2"/>
       <c r="I10" s="2">
-        <v>42822</v>
+        <v>42825</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="2">
-        <v>42804</v>
+        <v>42825</v>
+      </c>
+      <c r="G11" s="2">
+        <v>42832</v>
       </c>
       <c r="I11" s="2">
-        <v>42821</v>
+        <v>42837</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="2">
+        <v>42823</v>
+      </c>
+      <c r="I12" s="2">
+        <v>42832</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F12" s="2">
-        <v>42832</v>
       </c>
     </row>
     <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="F13" s="2">
-        <v>42818</v>
-      </c>
+        <v>42823</v>
+      </c>
+      <c r="G13" s="2"/>
       <c r="I13" s="2">
-        <v>42825</v>
+        <v>42823</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="F14" s="2">
-        <v>42818</v>
-      </c>
-      <c r="G14" s="2"/>
+        <v>42822</v>
+      </c>
+      <c r="G14" s="3">
+        <v>42826</v>
+      </c>
       <c r="I14" s="2">
-        <v>42821</v>
+        <v>42822</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="F15" s="2">
-        <v>42814</v>
+        <v>42821</v>
       </c>
       <c r="G15" s="2">
-        <v>42818</v>
-      </c>
-      <c r="H15" s="1">
-        <v>5</v>
+        <v>42822</v>
       </c>
       <c r="I15" s="2">
-        <v>42818</v>
+        <v>42823</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="F16" s="2">
-        <v>42814</v>
+        <v>42821</v>
       </c>
       <c r="G16" s="2">
-        <v>42815</v>
+        <v>42822</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2</v>
       </c>
       <c r="I16" s="2">
-        <v>42815</v>
+        <v>42822</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="F17" s="2">
-        <v>42823</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+        <v>42804</v>
+      </c>
+      <c r="I17" s="2">
+        <v>42821</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="F18" s="2">
-        <v>42814</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="I18" s="2">
-        <v>42818</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>72</v>
+        <v>42837</v>
       </c>
     </row>
     <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="2">
+        <v>42818</v>
+      </c>
+      <c r="I19" s="2">
+        <v>42825</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="2">
-        <v>42814</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="I19" s="2">
-        <v>42814</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
-        <v>14</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="F20" s="2">
-        <v>42814</v>
+        <v>42818</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="I20" s="2">
+        <v>42821</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F21" s="2">
-        <v>42812</v>
+        <v>42814</v>
       </c>
       <c r="G21" s="2">
-        <v>42812</v>
+        <v>42818</v>
+      </c>
+      <c r="H21" s="1">
+        <v>5</v>
       </c>
       <c r="I21" s="2">
-        <v>42812</v>
+        <v>42818</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F22" s="2">
-        <v>42810</v>
-      </c>
-      <c r="G22" s="2"/>
+        <v>42814</v>
+      </c>
+      <c r="G22" s="2">
+        <v>42815</v>
+      </c>
+      <c r="I22" s="2">
+        <v>42815</v>
+      </c>
       <c r="J22" s="1" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>113</v>
+        <v>71</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="2">
-        <v>42811</v>
-      </c>
-      <c r="G23" s="2">
-        <v>42818</v>
-      </c>
-      <c r="I23" s="2">
-        <v>42818</v>
+        <v>42814</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="F24" s="2">
-        <v>42808</v>
+        <v>42814</v>
       </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="1">
-        <v>3</v>
-      </c>
       <c r="I24" s="2">
-        <v>42815</v>
+        <v>42818</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F25" s="2">
-        <v>42808</v>
-      </c>
-      <c r="G25" s="2">
-        <v>42816</v>
-      </c>
-      <c r="H25" s="1">
-        <v>2</v>
-      </c>
+        <v>42814</v>
+      </c>
+      <c r="G25" s="2"/>
       <c r="I25" s="2">
         <v>42814</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F26" s="2">
-        <v>42808</v>
-      </c>
-      <c r="G26" s="2">
-        <v>42816</v>
-      </c>
-      <c r="H26" s="1">
-        <v>2</v>
-      </c>
-      <c r="I26" s="2">
-        <v>42810</v>
+        <v>42812</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="F27" s="2">
         <v>42812</v>
       </c>
+      <c r="G27" s="2">
+        <v>42812</v>
+      </c>
+      <c r="I27" s="2">
+        <v>42812</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="F28" s="2">
-        <v>42804</v>
-      </c>
-      <c r="G28" s="2">
-        <v>42811</v>
-      </c>
-      <c r="I28" s="2">
-        <v>42818</v>
-      </c>
+        <v>42810</v>
+      </c>
+      <c r="G28" s="2"/>
       <c r="J28" s="1" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F29" s="3">
-        <v>42767</v>
-      </c>
-      <c r="G29" s="2"/>
+      <c r="F29" s="2">
+        <v>42811</v>
+      </c>
+      <c r="G29" s="2">
+        <v>42818</v>
+      </c>
       <c r="I29" s="2">
-        <v>42821</v>
+        <v>42818</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
+        <v>7</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="2">
+        <v>42808</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="1">
+        <v>3</v>
+      </c>
+      <c r="I30" s="2">
+        <v>42815</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>6</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="2">
+        <v>42808</v>
+      </c>
+      <c r="G31" s="2">
+        <v>42816</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2</v>
+      </c>
+      <c r="I31" s="2">
+        <v>42814</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="2">
+        <v>42808</v>
+      </c>
+      <c r="G32" s="2">
+        <v>42816</v>
+      </c>
+      <c r="H32" s="1">
+        <v>2</v>
+      </c>
+      <c r="I32" s="2">
+        <v>42810</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="2">
+        <v>42807</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>3</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="2">
+        <v>42804</v>
+      </c>
+      <c r="G34" s="2">
+        <v>42811</v>
+      </c>
+      <c r="I34" s="2">
+        <v>42818</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>2</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="3">
+        <v>42767</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="I35" s="2">
+        <v>42821</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
         <v>1</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F36" s="2">
         <v>42807</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="I30" s="2">
+      <c r="G36" s="2"/>
+      <c r="I36" s="2">
         <v>42811</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L30" s="1" t="s">
+      <c r="K36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L36" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A31" s="1">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="2">
-        <v>42807</v>
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
+        <v>30</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="2">
+        <v>42832</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="I37" s="2">
+        <v>42839</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L31">
+  <autoFilter ref="A1:L38">
     <filterColumn colId="4">
       <filters>
         <filter val="A"/>
         <filter val="B"/>
-        <filter val="C"/>
         <filter val="D"/>
       </filters>
     </filterColumn>
-    <sortState ref="A2:L31">
-      <sortCondition ref="E1:E31"/>
+    <sortState ref="A4:L38">
+      <sortCondition ref="E1:E37"/>
     </sortState>
   </autoFilter>
   <sortState ref="A1:H1">

--- a/工作安排.xlsx
+++ b/工作安排.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="164">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -660,15 +660,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成上海方的新需求与bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1069,10 +1081,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1195,22 +1207,22 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F4" s="2">
-        <v>42839</v>
+        <v>42842</v>
       </c>
     </row>
     <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
@@ -1277,42 +1289,42 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="F7" s="2">
-        <v>42825</v>
+        <v>42839</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="F8" s="2">
-        <v>42818</v>
+        <v>42825</v>
       </c>
     </row>
     <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
@@ -1604,22 +1616,22 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="F18" s="2">
-        <v>42837</v>
+        <v>42818</v>
       </c>
     </row>
     <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
@@ -2083,22 +2095,22 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="F33" s="2">
-        <v>42807</v>
+        <v>42837</v>
       </c>
     </row>
     <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
@@ -2220,15 +2232,35 @@
         <v>42839</v>
       </c>
       <c r="J37" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K37" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
+        <v>4</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="2">
+        <v>42807</v>
       </c>
     </row>
   </sheetData>
@@ -2240,8 +2272,8 @@
         <filter val="D"/>
       </filters>
     </filterColumn>
-    <sortState ref="A4:L38">
-      <sortCondition ref="E1:E37"/>
+    <sortState ref="A4:L39">
+      <sortCondition ref="E1:E38"/>
     </sortState>
   </autoFilter>
   <sortState ref="A1:H1">

--- a/工作安排.xlsx
+++ b/工作安排.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$41</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="171">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -284,15 +284,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>数据层设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义模板后台数据库设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据层设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义模板后台数据库设计</t>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -300,7 +320,143 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>原优先级</t>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录和注册一起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要赛saas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七牛云上传图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七牛云上传视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人报名图片打包下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人报名信息导出成word文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liyulinbill个人域名实名认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载word改为页面打印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前就已经认证了的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面打印预览bug修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄铁系列赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛事图片和我要赛手机站图冲突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对接新主机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -308,43 +464,215 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>BaseModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端bug修改-分页及照片查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信/支付宝 支付接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章管理功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片管理功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限管理重写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug修改与需求改动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳入31项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>转向亮解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug修改完成，需求产品经理和主办方对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Impinj测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码重写-优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面打印-领队和订单详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限设置-导出图片和预览报名信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>登录和注册一起</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我要赛saas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>七牛云上传图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>七牛云上传视频</t>
+    <t>计时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记住IP配置，生成本地配置文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成上海方的新需求与bug</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -352,35 +680,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>优对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个静态活动页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>外包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海外包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人报名图片打包下载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人报名信息导出成word文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>域名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liyulinbill个人域名实名认证</t>
+    <t>O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -388,299 +708,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载word改为页面打印</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>之前就已经认证了的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海外包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面打印预览bug修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玄铁系列赛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赛事图片和我要赛手机站图冲突</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对接新主机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BaseModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端bug修改-分页及照片查看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信/支付宝 支付接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文章管理功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片管理功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限管理重写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海外包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bug修改与需求改动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纳入31项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转向亮解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bug修改完成，需求产品经理和主办方对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Impinj测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码重写-优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海外包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面打印-领队和订单详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限设置-导出图片和预览报名信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记住IP配置，生成本地配置文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海外包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成上海方的新需求与bug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1081,10 +1109,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1135,7 +1163,7 @@
         <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>20</v>
@@ -1143,684 +1171,678 @@
     </row>
     <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="F2" s="2">
-        <v>42839</v>
+        <v>42846</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
       </c>
       <c r="I2" s="2">
-        <v>42839</v>
+        <v>42849</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F3" s="2">
-        <v>42839</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2">
-        <v>42839</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>150</v>
+        <v>42842</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>163</v>
+        <v>69</v>
       </c>
       <c r="F4" s="2">
-        <v>42842</v>
+        <v>42839</v>
       </c>
     </row>
     <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="F5" s="2">
-        <v>42837</v>
+        <v>42839</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
       </c>
       <c r="I5" s="2">
-        <v>41743</v>
+        <v>42839</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="F6" s="2">
-        <v>42835</v>
-      </c>
-      <c r="G6" s="2"/>
+        <v>42839</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
       <c r="I6" s="2">
-        <v>42835</v>
+        <v>42839</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="F7" s="2">
-        <v>42839</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+        <v>42825</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="F8" s="2">
-        <v>42825</v>
+        <v>42837</v>
+      </c>
+      <c r="I8" s="2">
+        <v>41743</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2">
-        <v>42825</v>
-      </c>
-      <c r="G9" s="2">
-        <v>42832</v>
-      </c>
+        <v>42835</v>
+      </c>
+      <c r="G9" s="2"/>
       <c r="I9" s="2">
-        <v>42831</v>
+        <v>42835</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>123</v>
+        <v>135</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="2">
-        <v>42825</v>
+        <v>42832</v>
       </c>
       <c r="G10" s="2"/>
       <c r="I10" s="2">
-        <v>42825</v>
+        <v>42839</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="F11" s="2">
-        <v>42825</v>
-      </c>
-      <c r="G11" s="2">
-        <v>42832</v>
-      </c>
-      <c r="I11" s="2">
         <v>42837</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="F12" s="2">
-        <v>42823</v>
+        <v>42825</v>
+      </c>
+      <c r="G12" s="2">
+        <v>42832</v>
       </c>
       <c r="I12" s="2">
-        <v>42832</v>
+        <v>42831</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="F13" s="2">
-        <v>42823</v>
+        <v>42825</v>
       </c>
       <c r="G13" s="2"/>
       <c r="I13" s="2">
-        <v>42823</v>
+        <v>42825</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2">
-        <v>42822</v>
-      </c>
-      <c r="G14" s="3">
-        <v>42826</v>
+        <v>42825</v>
+      </c>
+      <c r="G14" s="2">
+        <v>42832</v>
       </c>
       <c r="I14" s="2">
-        <v>42822</v>
+        <v>42837</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="F15" s="2">
-        <v>42821</v>
-      </c>
-      <c r="G15" s="2">
-        <v>42822</v>
+        <v>42823</v>
       </c>
       <c r="I15" s="2">
-        <v>42823</v>
+        <v>42832</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="F16" s="2">
-        <v>42821</v>
-      </c>
-      <c r="G16" s="2">
-        <v>42822</v>
-      </c>
-      <c r="H16" s="1">
-        <v>2</v>
-      </c>
+        <v>42823</v>
+      </c>
+      <c r="G16" s="2"/>
       <c r="I16" s="2">
-        <v>42822</v>
+        <v>42823</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="F17" s="2">
-        <v>42804</v>
+        <v>42822</v>
+      </c>
+      <c r="G17" s="3">
+        <v>42826</v>
       </c>
       <c r="I17" s="2">
+        <v>42822</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="2">
         <v>42821</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
-        <v>19</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="2">
-        <v>42818</v>
+      <c r="G18" s="2">
+        <v>42822</v>
+      </c>
+      <c r="I18" s="2">
+        <v>42823</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="F19" s="2">
-        <v>42818</v>
+        <v>42821</v>
+      </c>
+      <c r="G19" s="2">
+        <v>42822</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2</v>
       </c>
       <c r="I19" s="2">
-        <v>42825</v>
+        <v>42822</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F20" s="2">
-        <v>42818</v>
-      </c>
-      <c r="G20" s="2"/>
+        <v>42804</v>
+      </c>
       <c r="I20" s="2">
         <v>42821</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="F21" s="2">
-        <v>42814</v>
-      </c>
-      <c r="G21" s="2">
         <v>42818</v>
       </c>
-      <c r="H21" s="1">
-        <v>5</v>
-      </c>
       <c r="I21" s="2">
-        <v>42818</v>
+        <v>42849</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>59</v>
+        <v>169</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>62</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="F22" s="2">
-        <v>42814</v>
-      </c>
-      <c r="G22" s="2">
-        <v>42815</v>
+        <v>42818</v>
       </c>
       <c r="I22" s="2">
-        <v>42815</v>
+        <v>42825</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F23" s="2">
-        <v>42814</v>
+        <v>42818</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="I23" s="2">
+        <v>42821</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F24" s="2">
         <v>42814</v>
       </c>
-      <c r="G24" s="2"/>
+      <c r="G24" s="2">
+        <v>42818</v>
+      </c>
+      <c r="H24" s="1">
+        <v>5</v>
+      </c>
       <c r="I24" s="2">
         <v>42818</v>
       </c>
@@ -1830,29 +1852,34 @@
       <c r="K24" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="L24" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F25" s="2">
         <v>42814</v>
       </c>
-      <c r="G25" s="2"/>
+      <c r="G25" s="2">
+        <v>42815</v>
+      </c>
       <c r="I25" s="2">
-        <v>42814</v>
+        <v>42815</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>47</v>
@@ -1860,166 +1887,163 @@
       <c r="K25" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="L25" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F26" s="2">
-        <v>42812</v>
+        <v>42814</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F27" s="2">
-        <v>42812</v>
-      </c>
-      <c r="G27" s="2">
-        <v>42812</v>
-      </c>
+        <v>42814</v>
+      </c>
+      <c r="G27" s="2"/>
       <c r="I27" s="2">
-        <v>42812</v>
+        <v>42818</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F28" s="2">
-        <v>42810</v>
+        <v>42814</v>
       </c>
       <c r="G28" s="2"/>
+      <c r="I28" s="2">
+        <v>42814</v>
+      </c>
       <c r="J28" s="1" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F29" s="2">
-        <v>42811</v>
-      </c>
-      <c r="G29" s="2">
-        <v>42818</v>
-      </c>
-      <c r="I29" s="2">
-        <v>42818</v>
+        <v>42812</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F30" s="2">
-        <v>42808</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="1">
-        <v>3</v>
+        <v>42812</v>
+      </c>
+      <c r="G30" s="2">
+        <v>42812</v>
       </c>
       <c r="I30" s="2">
-        <v>42815</v>
+        <v>42812</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>28</v>
@@ -2028,252 +2052,292 @@
         <v>16</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="F31" s="2">
-        <v>42808</v>
-      </c>
-      <c r="G31" s="2">
-        <v>42816</v>
-      </c>
-      <c r="H31" s="1">
-        <v>2</v>
-      </c>
-      <c r="I31" s="2">
-        <v>42814</v>
-      </c>
+        <v>42810</v>
+      </c>
+      <c r="G31" s="2"/>
       <c r="J31" s="1" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F32" s="2">
-        <v>42808</v>
+        <v>42811</v>
       </c>
       <c r="G32" s="2">
-        <v>42816</v>
-      </c>
-      <c r="H32" s="1">
-        <v>2</v>
+        <v>42818</v>
       </c>
       <c r="I32" s="2">
-        <v>42810</v>
+        <v>42818</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>71</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>144</v>
+        <v>51</v>
       </c>
       <c r="F33" s="2">
-        <v>42837</v>
+        <v>42808</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="1">
+        <v>3</v>
+      </c>
+      <c r="I33" s="2">
+        <v>42815</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F34" s="2">
-        <v>42804</v>
+        <v>42808</v>
       </c>
       <c r="G34" s="2">
-        <v>42811</v>
+        <v>42816</v>
+      </c>
+      <c r="H34" s="1">
+        <v>2</v>
       </c>
       <c r="I34" s="2">
-        <v>42818</v>
+        <v>42814</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F35" s="3">
-        <v>42767</v>
-      </c>
-      <c r="G35" s="2"/>
+      <c r="F35" s="2">
+        <v>42808</v>
+      </c>
+      <c r="G35" s="2">
+        <v>42816</v>
+      </c>
+      <c r="H35" s="1">
+        <v>2</v>
+      </c>
       <c r="I35" s="2">
-        <v>42821</v>
+        <v>42810</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F36" s="2">
         <v>42807</v>
       </c>
-      <c r="G36" s="2"/>
-      <c r="I36" s="2">
-        <v>42811</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F37" s="2">
-        <v>42832</v>
-      </c>
-      <c r="G37" s="2"/>
+        <v>42804</v>
+      </c>
+      <c r="G37" s="2">
+        <v>42811</v>
+      </c>
       <c r="I37" s="2">
-        <v>42839</v>
+        <v>42818</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="2">
+        <v>18</v>
+      </c>
+      <c r="F39" s="3">
+        <v>42767</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="I39" s="2">
+        <v>42821</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
+        <v>1</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="2">
         <v>42807</v>
       </c>
+      <c r="G40" s="2"/>
+      <c r="I40" s="2">
+        <v>42811</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L38">
+  <autoFilter ref="A1:L41">
     <filterColumn colId="4">
-      <filters>
+      <filters blank="1">
         <filter val="A"/>
         <filter val="B"/>
         <filter val="D"/>
       </filters>
     </filterColumn>
-    <sortState ref="A4:L39">
-      <sortCondition ref="E1:E38"/>
+    <sortState ref="A3:L41">
+      <sortCondition ref="E1:E41"/>
     </sortState>
   </autoFilter>
   <sortState ref="A1:H1">

--- a/工作安排.xlsx
+++ b/工作安排.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$42</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="185">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,11 +85,270 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台权限管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款退赛和退款不退赛、自动退款</t>
+  </si>
+  <si>
+    <t>修改、删除信息的备份，支持数据恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不排除要改需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛事权限细化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞立时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要赛saas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞立时网站SEO关键字上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台登录及权限管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择:thinkphp框架，原生bootstrap，seajs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要赛saas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saas系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传不同的赛事图片尺寸功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saas系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员操作界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备份和现有的区别展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留有一点页面内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aliyun有个安全组，可以直接配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁三saas前端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC端开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量页面没有seo，核心有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细节bug修改-手机验证码登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要进一步测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据层设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义模板后台数据库设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>结束时间</t>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录和注册一起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要赛saas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七牛云上传图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七牛云上传视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -97,7 +356,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>后台权限管理</t>
+    <t>个人报名图片打包下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人报名信息导出成word文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liyulinbill个人域名实名认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -105,38 +388,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退款退赛和退款不退赛、自动退款</t>
-  </si>
-  <si>
-    <t>修改、删除信息的备份，支持数据恢复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不排除要改需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赛事权限细化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SEO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞立时</t>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载word改为页面打印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前就已经认证了的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -144,11 +408,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我要赛saas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞立时网站SEO关键字上传</t>
+    <t>上海外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面打印预览bug修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄铁系列赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛事图片和我要赛手机站图冲突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对接新主机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端bug修改-分页及照片查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信/支付宝 支付接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -156,7 +500,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>后台登录及权限管理</t>
+    <t>文章管理功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片管理功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -164,11 +512,231 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>选择:thinkphp框架，原生bootstrap，seajs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我要赛saas</t>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限管理重写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug修改与需求改动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳入31项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转向亮解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug修改完成，需求产品经理和主办方对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Impinj测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码重写-优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面打印-领队和订单详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限设置-导出图片和预览报名信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记住IP配置，生成本地配置文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成上海方的新需求与bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个静态活动页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台管理员与权限管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照搬个人的后台系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台用户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -176,539 +744,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上传不同的赛事图片尺寸功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>saas系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员操作界面</t>
+    <t>后台用户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不再负责我要赛saas系统了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海外包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备份和现有的区别展示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>留有一点页面内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优对</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aliyun有个安全组，可以直接配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁三saas前端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC端开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大量页面没有seo，核心有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>细节bug修改-手机验证码登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要进一步测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据层设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义模板后台数据库设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原优先级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录和注册一起</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我要赛saas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>七牛云上传图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>七牛云上传视频</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海外包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人报名图片打包下载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人报名信息导出成word文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>域名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liyulinbill个人域名实名认证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载word改为页面打印</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>之前就已经认证了的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海外包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面打印预览bug修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玄铁系列赛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赛事图片和我要赛手机站图冲突</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对接新主机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BaseModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端bug修改-分页及照片查看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信/支付宝 支付接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文章管理功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片管理功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限管理重写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海外包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bug修改与需求改动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纳入31项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转向亮解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bug修改完成，需求产品经理和主办方对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Impinj测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码重写-优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海外包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面打印-领队和订单详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限设置-导出图片和预览报名信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记住IP配置，生成本地配置文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海外包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成上海方的新需求与bug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优对</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>静态页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两个静态活动页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1109,11 +1165,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1157,16 +1211,16 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
@@ -1174,16 +1228,16 @@
         <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="F2" s="2">
         <v>42846</v>
@@ -1195,10 +1249,10 @@
         <v>42849</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -1206,39 +1260,42 @@
         <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="F3" s="2">
         <v>42842</v>
       </c>
+      <c r="G3" s="2">
+        <v>42853</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>69</v>
+        <v>172</v>
       </c>
       <c r="F4" s="2">
-        <v>42839</v>
+        <v>42852</v>
       </c>
     </row>
     <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
@@ -1246,16 +1303,16 @@
         <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F5" s="2">
         <v>42839</v>
@@ -1267,10 +1324,10 @@
         <v>42839</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
@@ -1278,16 +1335,16 @@
         <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F6" s="2">
         <v>42839</v>
@@ -1299,30 +1356,30 @@
         <v>42839</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="F7" s="2">
-        <v>42825</v>
+        <v>42852</v>
       </c>
     </row>
     <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
@@ -1330,16 +1387,16 @@
         <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="2">
         <v>42837</v>
@@ -1348,10 +1405,10 @@
         <v>41743</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
@@ -1359,16 +1416,16 @@
         <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="2">
         <v>42835</v>
@@ -1378,13 +1435,13 @@
         <v>42835</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
@@ -1392,16 +1449,16 @@
         <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="2">
         <v>42832</v>
@@ -1411,30 +1468,30 @@
         <v>42839</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="F11" s="2">
-        <v>42837</v>
+        <v>42825</v>
       </c>
     </row>
     <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
@@ -1442,16 +1499,16 @@
         <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F12" s="2">
         <v>42825</v>
@@ -1463,10 +1520,10 @@
         <v>42831</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
@@ -1474,16 +1531,16 @@
         <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" s="2">
         <v>42825</v>
@@ -1493,10 +1550,10 @@
         <v>42825</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
@@ -1504,16 +1561,16 @@
         <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2">
         <v>42825</v>
@@ -1525,10 +1582,10 @@
         <v>42837</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
@@ -1536,16 +1593,16 @@
         <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15" s="2">
         <v>42823</v>
@@ -1554,10 +1611,10 @@
         <v>42832</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
@@ -1565,16 +1622,16 @@
         <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16" s="2">
         <v>42823</v>
@@ -1584,10 +1641,10 @@
         <v>42823</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
@@ -1595,16 +1652,16 @@
         <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F17" s="2">
         <v>42822</v>
@@ -1616,13 +1673,13 @@
         <v>42822</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="L17" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
@@ -1630,16 +1687,16 @@
         <v>22</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F18" s="2">
         <v>42821</v>
@@ -1651,13 +1708,13 @@
         <v>42823</v>
       </c>
       <c r="J18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
@@ -1665,16 +1722,16 @@
         <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F19" s="2">
         <v>42821</v>
@@ -1689,10 +1746,10 @@
         <v>42822</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
@@ -1700,16 +1757,16 @@
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F20" s="2">
         <v>42804</v>
@@ -1718,10 +1775,10 @@
         <v>42821</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
@@ -1729,16 +1786,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F21" s="2">
         <v>42818</v>
@@ -1747,10 +1804,10 @@
         <v>42849</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
@@ -1758,16 +1815,16 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F22" s="2">
         <v>42818</v>
@@ -1776,13 +1833,13 @@
         <v>42825</v>
       </c>
       <c r="J22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="L22" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
@@ -1790,16 +1847,16 @@
         <v>17</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23" s="2">
         <v>42818</v>
@@ -1809,13 +1866,13 @@
         <v>42821</v>
       </c>
       <c r="J23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
@@ -1823,16 +1880,16 @@
         <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F24" s="2">
         <v>42814</v>
@@ -1847,13 +1904,13 @@
         <v>42818</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
@@ -1861,16 +1918,16 @@
         <v>15</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="F25" s="2">
         <v>42814</v>
@@ -1882,13 +1939,13 @@
         <v>42815</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
@@ -1896,28 +1953,28 @@
         <v>14</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F26" s="2">
         <v>42814</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K26" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L26" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
@@ -1925,16 +1982,16 @@
         <v>13</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F27" s="2">
         <v>42814</v>
@@ -1944,10 +2001,10 @@
         <v>42818</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
@@ -1955,16 +2012,16 @@
         <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="F28" s="2">
         <v>42814</v>
@@ -1974,10 +2031,10 @@
         <v>42814</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
@@ -1985,28 +2042,28 @@
         <v>11</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F29" s="2">
         <v>42812</v>
       </c>
       <c r="J29" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="L29" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
@@ -2014,16 +2071,16 @@
         <v>10</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F30" s="2">
         <v>42812</v>
@@ -2035,10 +2092,10 @@
         <v>42812</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
@@ -2046,26 +2103,26 @@
         <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F31" s="2">
         <v>42810</v>
       </c>
       <c r="G31" s="2"/>
       <c r="J31" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
@@ -2073,16 +2130,16 @@
         <v>8</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F32" s="2">
         <v>42811</v>
@@ -2094,13 +2151,13 @@
         <v>42818</v>
       </c>
       <c r="J32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L32" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
@@ -2108,16 +2165,16 @@
         <v>7</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F33" s="2">
         <v>42808</v>
@@ -2130,10 +2187,10 @@
         <v>42815</v>
       </c>
       <c r="J33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
@@ -2141,16 +2198,16 @@
         <v>6</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F34" s="2">
         <v>42808</v>
@@ -2165,13 +2222,13 @@
         <v>42814</v>
       </c>
       <c r="J34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L34" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
@@ -2179,16 +2236,16 @@
         <v>5</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="F35" s="2">
         <v>42808</v>
@@ -2203,33 +2260,33 @@
         <v>42810</v>
       </c>
       <c r="J35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L35" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="F36" s="2">
-        <v>42807</v>
+        <v>42839</v>
       </c>
     </row>
     <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
@@ -2237,16 +2294,16 @@
         <v>3</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F37" s="2">
         <v>42804</v>
@@ -2258,86 +2315,170 @@
         <v>42818</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
+        <v>2</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="3">
+        <v>42767</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="I38" s="2">
+        <v>42821</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="3">
-        <v>42767</v>
+        <v>17</v>
+      </c>
+      <c r="F39" s="2">
+        <v>42807</v>
       </c>
       <c r="G39" s="2"/>
       <c r="I39" s="2">
-        <v>42821</v>
+        <v>42811</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="L39" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>8</v>
+        <v>168</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>9</v>
+        <v>170</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="F40" s="2">
+        <v>42852</v>
+      </c>
+      <c r="I40" s="2">
+        <v>42852</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
+        <v>33</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F41" s="2">
+        <v>42837</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="1">
+        <v>4</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F42" s="2">
         <v>42807</v>
       </c>
-      <c r="G40" s="2"/>
-      <c r="I40" s="2">
-        <v>42811</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>34</v>
+      <c r="I42" s="2">
+        <v>42853</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L41">
+  <autoFilter ref="A1:L42">
     <filterColumn colId="4">
-      <filters blank="1">
+      <filters>
         <filter val="A"/>
         <filter val="B"/>
         <filter val="D"/>
       </filters>
     </filterColumn>
     <sortState ref="A3:L41">
-      <sortCondition ref="E1:E41"/>
+      <sortCondition ref="E1:E42"/>
     </sortState>
   </autoFilter>
   <sortState ref="A1:H1">
@@ -2345,7 +2486,7 @@
   </sortState>
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:L1000">
+  <conditionalFormatting sqref="A2:L999">
     <cfRule type="expression" dxfId="4" priority="2">
       <formula>$E2="D"</formula>
     </cfRule>

--- a/工作安排.xlsx
+++ b/工作安排.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="229">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -748,23 +748,199 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不再负责我要赛saas系统了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理-细则权限管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理-功能按钮与跳转页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取缩略图信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方没有回应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地测试可以，未上线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛后成绩短信群发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不再负责我要赛saas系统了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
+    <t>个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频管理功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网页设置模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用七牛云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excel表数据读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51sai现有的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论和设置没做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物-个人简历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优对50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据转换为优对用户数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1165,9 +1341,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1223,1262 +1401,1543 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>165</v>
+        <v>69</v>
       </c>
       <c r="F2" s="2">
-        <v>42846</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2">
-        <v>42849</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+        <v>42863</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>159</v>
+        <v>216</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2">
-        <v>42842</v>
-      </c>
-      <c r="G3" s="2">
-        <v>42853</v>
+        <v>42863</v>
+      </c>
+      <c r="I3" s="2">
+        <v>42863</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>175</v>
+        <v>226</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
       <c r="F4" s="2">
-        <v>42852</v>
+        <v>42864</v>
+      </c>
+      <c r="G4" s="2">
+        <v>42864</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>143</v>
+        <v>195</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>146</v>
+        <v>196</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="F5" s="2">
-        <v>42839</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2">
-        <v>42839</v>
+        <v>42858</v>
+      </c>
+      <c r="G5" s="2">
+        <v>42865</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>150</v>
+        <v>203</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>142</v>
+        <v>191</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="F6" s="2">
-        <v>42839</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
+        <v>42858</v>
       </c>
       <c r="I6" s="2">
-        <v>42839</v>
+        <v>42859</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>148</v>
+        <v>198</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="F7" s="2">
-        <v>42852</v>
+        <v>42857</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="I7" s="2">
+        <v>42857</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>199</v>
       </c>
       <c r="F8" s="2">
-        <v>42837</v>
+        <v>42852</v>
       </c>
       <c r="I8" s="2">
-        <v>41743</v>
+        <v>42853</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>148</v>
+        <v>198</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>151</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F9" s="2">
-        <v>42835</v>
-      </c>
-      <c r="G9" s="2"/>
+        <v>42852</v>
+      </c>
       <c r="I9" s="2">
-        <v>42835</v>
+        <v>42853</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>135</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>123</v>
+        <v>168</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>174</v>
       </c>
       <c r="F10" s="2">
-        <v>42832</v>
-      </c>
-      <c r="G10" s="2"/>
+        <v>42852</v>
+      </c>
       <c r="I10" s="2">
-        <v>42839</v>
+        <v>42852</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+        <v>172</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="F11" s="2">
-        <v>42825</v>
+        <v>42846</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>42849</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F12" s="2">
-        <v>42825</v>
+        <v>42842</v>
       </c>
       <c r="G12" s="2">
-        <v>42832</v>
-      </c>
-      <c r="I12" s="2">
-        <v>42831</v>
+        <v>42853</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>121</v>
+        <v>197</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>108</v>
+        <v>209</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>112</v>
+        <v>210</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="F13" s="2">
-        <v>42825</v>
-      </c>
-      <c r="G13" s="2"/>
+        <v>42863</v>
+      </c>
       <c r="I13" s="2">
-        <v>42825</v>
+        <v>42864</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>113</v>
+        <v>220</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>114</v>
+        <v>221</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="F14" s="2">
-        <v>42825</v>
-      </c>
-      <c r="G14" s="2">
-        <v>42832</v>
+        <v>42839</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
       </c>
       <c r="I14" s="2">
-        <v>42837</v>
+        <v>42839</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="F15" s="2">
-        <v>42823</v>
+        <v>42839</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
       </c>
       <c r="I15" s="2">
-        <v>42832</v>
+        <v>42839</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>50</v>
+        <v>208</v>
       </c>
       <c r="F16" s="2">
-        <v>42823</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="I16" s="2">
-        <v>42823</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>100</v>
+        <v>42863</v>
       </c>
     </row>
     <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="F17" s="2">
-        <v>42822</v>
-      </c>
-      <c r="G17" s="3">
-        <v>42826</v>
+        <v>42837</v>
       </c>
       <c r="I17" s="2">
-        <v>42822</v>
+        <v>41743</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="F18" s="2">
-        <v>42821</v>
-      </c>
-      <c r="G18" s="2">
-        <v>42822</v>
-      </c>
+        <v>42835</v>
+      </c>
+      <c r="G18" s="2"/>
       <c r="I18" s="2">
-        <v>42823</v>
+        <v>42835</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="F19" s="2">
-        <v>42821</v>
-      </c>
-      <c r="G19" s="2">
-        <v>42822</v>
-      </c>
-      <c r="H19" s="1">
-        <v>2</v>
-      </c>
+        <v>42832</v>
+      </c>
+      <c r="G19" s="2"/>
       <c r="I19" s="2">
-        <v>42822</v>
+        <v>42839</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="F20" s="2">
-        <v>42804</v>
+        <v>42825</v>
       </c>
       <c r="I20" s="2">
-        <v>42821</v>
+        <v>42863</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>78</v>
+        <v>208</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="F21" s="2">
-        <v>42818</v>
+        <v>42825</v>
+      </c>
+      <c r="G21" s="2">
+        <v>42832</v>
       </c>
       <c r="I21" s="2">
-        <v>42849</v>
+        <v>42831</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>167</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="2">
-        <v>42818</v>
-      </c>
+        <v>42825</v>
+      </c>
+      <c r="G22" s="2"/>
       <c r="I22" s="2">
         <v>42825</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F23" s="2">
-        <v>42818</v>
-      </c>
-      <c r="G23" s="2"/>
+        <v>42825</v>
+      </c>
+      <c r="G23" s="2">
+        <v>42832</v>
+      </c>
       <c r="I23" s="2">
-        <v>42821</v>
+        <v>42837</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>74</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="F24" s="2">
-        <v>42814</v>
-      </c>
-      <c r="G24" s="2">
-        <v>42818</v>
-      </c>
-      <c r="H24" s="1">
-        <v>5</v>
+        <v>42823</v>
       </c>
       <c r="I24" s="2">
-        <v>42818</v>
+        <v>42832</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F25" s="2">
-        <v>42814</v>
-      </c>
-      <c r="G25" s="2">
-        <v>42815</v>
-      </c>
+        <v>42823</v>
+      </c>
+      <c r="G25" s="2"/>
       <c r="I25" s="2">
-        <v>42815</v>
+        <v>42823</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="F26" s="2">
-        <v>42814</v>
+        <v>42822</v>
+      </c>
+      <c r="G26" s="3">
+        <v>42826</v>
+      </c>
+      <c r="I26" s="2">
+        <v>42822</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="F27" s="2">
-        <v>42814</v>
-      </c>
-      <c r="G27" s="2"/>
+        <v>42821</v>
+      </c>
+      <c r="G27" s="2">
+        <v>42822</v>
+      </c>
       <c r="I27" s="2">
-        <v>42818</v>
+        <v>42823</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>68</v>
+        <v>91</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="F28" s="2">
-        <v>42814</v>
-      </c>
-      <c r="G28" s="2"/>
+        <v>42821</v>
+      </c>
+      <c r="G28" s="2">
+        <v>42822</v>
+      </c>
+      <c r="H28" s="1">
+        <v>2</v>
+      </c>
       <c r="I28" s="2">
-        <v>42814</v>
+        <v>42822</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F29" s="2">
-        <v>42812</v>
+        <v>42804</v>
+      </c>
+      <c r="I29" s="2">
+        <v>42821</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="F30" s="2">
-        <v>42812</v>
-      </c>
-      <c r="G30" s="2">
-        <v>42812</v>
+        <v>42818</v>
       </c>
       <c r="I30" s="2">
-        <v>42812</v>
+        <v>42849</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>44</v>
+        <v>166</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>68</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="F31" s="2">
-        <v>42810</v>
-      </c>
-      <c r="G31" s="2"/>
+        <v>42818</v>
+      </c>
+      <c r="I31" s="2">
+        <v>42825</v>
+      </c>
       <c r="J31" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F32" s="2">
-        <v>42811</v>
-      </c>
-      <c r="G32" s="2">
         <v>42818</v>
       </c>
+      <c r="G32" s="2"/>
       <c r="I32" s="2">
-        <v>42818</v>
+        <v>42821</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F33" s="2">
-        <v>42808</v>
-      </c>
-      <c r="G33" s="2"/>
+        <v>42814</v>
+      </c>
+      <c r="G33" s="2">
+        <v>42818</v>
+      </c>
       <c r="H33" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I33" s="2">
-        <v>42815</v>
+        <v>42818</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>102</v>
+        <v>69</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F34" s="2">
-        <v>42808</v>
+        <v>42814</v>
       </c>
       <c r="G34" s="2">
-        <v>42816</v>
-      </c>
-      <c r="H34" s="1">
-        <v>2</v>
+        <v>42815</v>
       </c>
       <c r="I34" s="2">
-        <v>42814</v>
+        <v>42815</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>69</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F35" s="2">
-        <v>42808</v>
-      </c>
-      <c r="G35" s="2">
-        <v>42816</v>
-      </c>
-      <c r="H35" s="1">
-        <v>2</v>
-      </c>
-      <c r="I35" s="2">
-        <v>42810</v>
+        <v>42814</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>153</v>
+        <v>38</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>154</v>
+        <v>64</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="F36" s="2">
-        <v>42839</v>
+        <v>42814</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="I36" s="2">
+        <v>42818</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F37" s="2">
-        <v>42804</v>
-      </c>
-      <c r="G37" s="2">
-        <v>42811</v>
-      </c>
+        <v>42814</v>
+      </c>
+      <c r="G37" s="2"/>
       <c r="I37" s="2">
-        <v>42818</v>
+        <v>42814</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="3">
-        <v>42767</v>
-      </c>
-      <c r="G38" s="2"/>
-      <c r="I38" s="2">
-        <v>42821</v>
+      <c r="F38" s="2">
+        <v>42812</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>67</v>
+        <v>132</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F39" s="2">
-        <v>42807</v>
-      </c>
-      <c r="G39" s="2"/>
+        <v>42812</v>
+      </c>
+      <c r="G39" s="2">
+        <v>42812</v>
+      </c>
       <c r="I39" s="2">
-        <v>42811</v>
+        <v>42812</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L39" s="1" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>168</v>
+        <v>27</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
       <c r="F40" s="2">
-        <v>42852</v>
-      </c>
-      <c r="I40" s="2">
-        <v>42852</v>
-      </c>
+        <v>42810</v>
+      </c>
+      <c r="G40" s="2"/>
       <c r="J40" s="1" t="s">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>138</v>
+        <v>26</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>141</v>
+        <v>29</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="F41" s="2">
-        <v>42837</v>
+        <v>42811</v>
+      </c>
+      <c r="G41" s="2">
+        <v>42818</v>
+      </c>
+      <c r="I41" s="2">
+        <v>42818</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
+        <v>7</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="2">
+        <v>42808</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="1">
+        <v>3</v>
+      </c>
+      <c r="I42" s="2">
+        <v>42815</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="1">
+        <v>6</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="2">
+        <v>42808</v>
+      </c>
+      <c r="G43" s="2">
+        <v>42816</v>
+      </c>
+      <c r="H43" s="1">
+        <v>2</v>
+      </c>
+      <c r="I43" s="2">
+        <v>42814</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="1">
+        <v>5</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="2">
+        <v>42808</v>
+      </c>
+      <c r="G44" s="2">
+        <v>42816</v>
+      </c>
+      <c r="H44" s="1">
+        <v>2</v>
+      </c>
+      <c r="I44" s="2">
+        <v>42810</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="1">
         <v>4</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F42" s="2">
+      <c r="E45" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F45" s="2">
         <v>42807</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I45" s="2">
         <v>42853</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J45" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K45" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="L45" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="L42" s="1" t="s">
-        <v>183</v>
+    </row>
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="1">
+        <v>3</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="2">
+        <v>42804</v>
+      </c>
+      <c r="G46" s="2">
+        <v>42811</v>
+      </c>
+      <c r="I46" s="2">
+        <v>42818</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="1">
+        <v>2</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="3">
+        <v>42767</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="I47" s="2">
+        <v>42821</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="1">
+        <v>1</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="2">
+        <v>42807</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="I48" s="2">
+        <v>42811</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="1">
+        <v>49</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F49" s="2">
+        <v>42864</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="1">
+        <v>36</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F50" s="2">
+        <v>42839</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="1">
+        <v>33</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F51" s="2">
+        <v>42837</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L42">
+  <autoFilter ref="A1:L51">
     <filterColumn colId="4">
-      <filters>
+      <filters blank="1">
         <filter val="A"/>
         <filter val="B"/>
+        <filter val="C"/>
         <filter val="D"/>
       </filters>
     </filterColumn>
-    <sortState ref="A3:L41">
-      <sortCondition ref="E1:E42"/>
+    <sortState ref="A2:L51">
+      <sortCondition ref="E1:E51"/>
     </sortState>
   </autoFilter>
   <sortState ref="A1:H1">
@@ -2486,7 +2945,7 @@
   </sortState>
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:L999">
+  <conditionalFormatting sqref="A2:L998">
     <cfRule type="expression" dxfId="4" priority="2">
       <formula>$E2="D"</formula>
     </cfRule>

--- a/工作安排.xlsx
+++ b/工作安排.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$54</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="250">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -940,7 +940,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户行为分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信推送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户关注公众号后推送图文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间过期一个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户状态细化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1341,10 +1425,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1403,22 +1487,22 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>103</v>
+        <v>230</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>69</v>
+        <v>236</v>
       </c>
       <c r="F2" s="2">
-        <v>42863</v>
+        <v>42866</v>
       </c>
     </row>
     <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
@@ -1453,7 +1537,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>50</v>
       </c>
@@ -1467,7 +1551,7 @@
         <v>227</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>228</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2">
         <v>42864</v>
@@ -1477,6 +1561,15 @@
       </c>
       <c r="H4" s="1">
         <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>42864</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
@@ -1822,22 +1915,22 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>10</v>
+        <v>232</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="F16" s="2">
-        <v>42863</v>
+        <v>42866</v>
       </c>
     </row>
     <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
@@ -2866,78 +2959,178 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F49" s="2">
+        <v>42863</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F50" s="2">
         <v>42864</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="1">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A51" s="1">
+        <v>53</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F51" s="2">
+        <v>42864</v>
+      </c>
+      <c r="G51" s="2">
+        <v>42867</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="1">
         <v>36</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F50" s="2">
+      <c r="E52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" s="2">
         <v>42839</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="1">
+      <c r="J52" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="1">
         <v>33</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F51" s="2">
+      <c r="E53" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F53" s="2">
         <v>42837</v>
       </c>
+      <c r="J53" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A54" s="1">
+        <v>45</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F54" s="2">
+        <v>42863</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F55" s="2">
+        <v>42867</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L51">
+  <autoFilter ref="A1:L54">
     <filterColumn colId="4">
-      <filters blank="1">
+      <filters>
         <filter val="A"/>
         <filter val="B"/>
         <filter val="C"/>
-        <filter val="D"/>
       </filters>
     </filterColumn>
-    <sortState ref="A2:L51">
-      <sortCondition ref="E1:E51"/>
+    <sortState ref="A2:L54">
+      <sortCondition ref="E1:E54"/>
     </sortState>
   </autoFilter>
   <sortState ref="A1:H1">

--- a/工作安排.xlsx
+++ b/工作安排.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$57</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="272">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -972,11 +972,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间过期一个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户状态细化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>否</t>
+    <t>没有可供测试的服务号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -984,15 +1032,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间过期一个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分细节需要打磨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>symfony环境搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>symfony学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以symfony中文网为准-了解控制器路由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://symfony.newlifeclan.com/</t>
+  </si>
+  <si>
+    <t>已记录学习笔记，参考：http://blog.csdn.net/weng_xianhu/article/details/65633371</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成复核结果的bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优对</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1000,27 +1107,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对话管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优对</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户状态细化</t>
+    <t>备忘里面的新增需求--先累计一下</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1425,10 +1512,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1443,8 +1530,9 @@
     <col min="8" max="9" width="16.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.25" style="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.375" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="12" max="12" width="33" style="1" customWidth="1"/>
+    <col min="13" max="13" width="23.125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1485,7 +1573,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>52</v>
       </c>
@@ -1499,10 +1587,19 @@
         <v>235</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>236</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2">
         <v>42866</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
@@ -1913,7 +2010,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>51</v>
       </c>
@@ -1927,10 +2024,25 @@
         <v>233</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>245</v>
+        <v>40</v>
       </c>
       <c r="F16" s="2">
         <v>42866</v>
+      </c>
+      <c r="G16" s="2">
+        <v>42874</v>
+      </c>
+      <c r="I16" s="2">
+        <v>42871</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
@@ -2961,45 +3073,48 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="F49" s="2">
-        <v>42863</v>
+        <v>42873</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>223</v>
+        <v>42</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>178</v>
+        <v>266</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>224</v>
+        <v>267</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>221</v>
+        <v>260</v>
       </c>
       <c r="F50" s="2">
-        <v>42864</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+        <v>42873</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>53</v>
       </c>
@@ -3007,19 +3122,28 @@
         <v>230</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="E51" s="1" t="s">
-        <v>244</v>
+        <v>40</v>
       </c>
       <c r="F51" s="2">
         <v>42864</v>
       </c>
       <c r="G51" s="2">
         <v>42867</v>
+      </c>
+      <c r="I51" s="2">
+        <v>42867</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
@@ -3042,13 +3166,13 @@
         <v>42839</v>
       </c>
       <c r="J52" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="K52" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="K52" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="L52" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
@@ -3065,36 +3189,36 @@
         <v>141</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F53" s="2">
         <v>42837</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K53" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="L53" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>103</v>
+        <v>211</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>205</v>
+        <v>10</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="F54" s="2">
         <v>42863</v>
@@ -3102,35 +3226,139 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
+        <v>49</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F55" s="2">
+        <v>42864</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F55" s="2">
+      <c r="B56" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F56" s="2">
         <v>42867</v>
       </c>
+      <c r="G56" s="2">
+        <v>42874</v>
+      </c>
+      <c r="I56" s="2">
+        <v>42872</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57" s="2">
+        <v>42872</v>
+      </c>
+      <c r="I57" s="2">
+        <v>42873</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A58" s="1">
+        <v>45</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F58" s="2">
+        <v>42863</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F59" s="2">
+        <v>42874</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L54">
+  <autoFilter ref="A1:L57">
     <filterColumn colId="4">
       <filters>
         <filter val="A"/>
         <filter val="B"/>
-        <filter val="C"/>
+        <filter val="D"/>
       </filters>
     </filterColumn>
-    <sortState ref="A2:L54">
-      <sortCondition ref="E1:E54"/>
+    <sortState ref="A49:L58">
+      <sortCondition ref="E1:E57"/>
     </sortState>
   </autoFilter>
   <sortState ref="A1:H1">

--- a/工作安排.xlsx
+++ b/工作安排.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$79</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="380">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1080,22 +1080,90 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>http://symfony.newlifeclan.com/</t>
+  </si>
+  <si>
+    <t>已记录学习笔记，参考：http://blog.csdn.net/weng_xianhu/article/details/65633371</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成复核结果的bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备忘里面的新增需求--先累计一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成后台新增需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://symfony.newlifeclan.com/</t>
-  </si>
-  <si>
-    <t>已记录学习笔记，参考：http://blog.csdn.net/weng_xianhu/article/details/65633371</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成复核结果的bug</t>
+    <t>个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>twig模板和配置章节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不排除新的需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制结束，时间太久远</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1107,11 +1175,374 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备忘里面的新增需求--先累计一下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
+    <t>首页用户统计表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计数据的优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信模板消息推送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户逻辑删除-前后台不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金流水报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户行为统计数据问题，已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单的用户登录（连接数据库）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给chenmengfan@xinli001.com;壹心理写封信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含营销活动功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营销活动功能-部分修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个赛事特定人群报名优惠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个是一次性的，后续可能需要永久性的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业认证审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券活动-主动推送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习symfony框架后再推进</t>
+  </si>
+  <si>
+    <t>学习symfony框架后再推进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计方案编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券系统后台开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在截至日期前会修订</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计方案反馈文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档需要存档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计方案最终稿-包含原型图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信推送所有人-改定时推送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优对2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库表迁移-PD文档编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1119,7 +1550,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1130,6 +1561,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1153,12 +1593,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1171,9 +1614,13 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -1512,10 +1959,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1523,7 +1970,7 @@
     <col min="1" max="1" width="10.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.375" style="1" customWidth="1"/>
@@ -1575,1790 +2022,2438 @@
     </row>
     <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>230</v>
+        <v>337</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>234</v>
+        <v>338</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>235</v>
+        <v>341</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>343</v>
       </c>
       <c r="F2" s="2">
-        <v>42866</v>
+        <v>42898</v>
+      </c>
+      <c r="G2" s="2">
+        <v>42898</v>
+      </c>
+      <c r="I2" s="2">
+        <v>42898</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>246</v>
+        <v>349</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>248</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>214</v>
+        <v>337</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>215</v>
+        <v>338</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>216</v>
+        <v>339</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>343</v>
       </c>
       <c r="F3" s="2">
-        <v>42863</v>
+        <v>42898</v>
+      </c>
+      <c r="G3" s="2">
+        <v>42898</v>
       </c>
       <c r="I3" s="2">
-        <v>42863</v>
+        <v>42898</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>217</v>
+        <v>342</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>219</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>225</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>226</v>
+        <v>330</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>227</v>
+        <v>331</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="2">
-        <v>42864</v>
+        <v>42893</v>
       </c>
       <c r="G4" s="2">
-        <v>42864</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
+        <v>42895</v>
       </c>
       <c r="I4" s="2">
-        <v>42864</v>
+        <v>42895</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>228</v>
+        <v>334</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>229</v>
+        <v>335</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>194</v>
+        <v>324</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>195</v>
+        <v>325</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>196</v>
+        <v>329</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2">
-        <v>42858</v>
+        <v>42893</v>
       </c>
       <c r="G5" s="2">
-        <v>42865</v>
+        <v>42893</v>
+      </c>
+      <c r="I5" s="2">
+        <v>42893</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>202</v>
+        <v>332</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>204</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>191</v>
+        <v>321</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>192</v>
+        <v>322</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>193</v>
+        <v>323</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="F6" s="2">
-        <v>42858</v>
+        <v>42891</v>
       </c>
       <c r="I6" s="2">
-        <v>42859</v>
+        <v>42892</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>198</v>
+        <v>327</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>197</v>
+        <v>326</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>184</v>
+        <v>354</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>185</v>
+        <v>351</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>188</v>
+        <v>352</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="F7" s="2">
-        <v>42857</v>
-      </c>
-      <c r="G7" s="2"/>
+        <v>42899</v>
+      </c>
+      <c r="G7" s="2">
+        <v>42909</v>
+      </c>
       <c r="I7" s="2">
-        <v>42857</v>
+        <v>42901</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>189</v>
+        <v>358</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+        <v>357</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>177</v>
+        <v>353</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>178</v>
+        <v>355</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>179</v>
+        <v>356</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>199</v>
+        <v>357</v>
       </c>
       <c r="F8" s="2">
-        <v>42852</v>
-      </c>
-      <c r="I8" s="2">
-        <v>42853</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>197</v>
+        <v>42902</v>
       </c>
     </row>
     <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>168</v>
+        <v>299</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>176</v>
+        <v>301</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>40</v>
+        <v>309</v>
       </c>
       <c r="F9" s="2">
-        <v>42852</v>
+        <v>42880</v>
+      </c>
+      <c r="G9" s="2">
+        <v>42882</v>
       </c>
       <c r="I9" s="2">
-        <v>42853</v>
+        <v>42881</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>186</v>
+        <v>307</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>187</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>168</v>
+        <v>291</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>169</v>
+        <v>297</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>170</v>
+        <v>298</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="F10" s="2">
-        <v>42852</v>
+        <v>42879</v>
       </c>
       <c r="I10" s="2">
-        <v>42852</v>
+        <v>42880</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>171</v>
+        <v>302</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>173</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>160</v>
+        <v>291</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>161</v>
+        <v>292</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>162</v>
+        <v>293</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>165</v>
+        <v>296</v>
       </c>
       <c r="F11" s="2">
-        <v>42846</v>
+        <v>42879</v>
+      </c>
+      <c r="G11" s="2">
+        <v>42879</v>
       </c>
       <c r="H11" s="1">
         <v>1</v>
       </c>
       <c r="I11" s="2">
-        <v>42849</v>
+        <v>42879</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>164</v>
+        <v>295</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>163</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>157</v>
+        <v>288</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>158</v>
+        <v>289</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>159</v>
+        <v>290</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="F12" s="2">
-        <v>42842</v>
-      </c>
-      <c r="G12" s="2">
-        <v>42853</v>
+        <v>42879</v>
+      </c>
+      <c r="I12" s="2">
+        <v>42880</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>200</v>
+        <v>304</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>197</v>
+        <v>305</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>201</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>209</v>
+        <v>285</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>286</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>210</v>
+        <v>287</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="F13" s="2">
-        <v>42863</v>
+        <v>42879</v>
       </c>
       <c r="I13" s="2">
-        <v>42864</v>
+        <v>42888</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>222</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>145</v>
+        <v>275</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>143</v>
+        <v>256</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>146</v>
+        <v>276</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>149</v>
+        <v>312</v>
       </c>
       <c r="F14" s="2">
-        <v>42839</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1</v>
+        <v>42879</v>
       </c>
       <c r="I14" s="2">
-        <v>42839</v>
+        <v>42886</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>148</v>
+        <v>310</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>150</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>142</v>
+        <v>270</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>143</v>
+        <v>271</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>144</v>
+        <v>272</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="F15" s="2">
-        <v>42839</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1</v>
+        <v>42874</v>
       </c>
       <c r="I15" s="2">
-        <v>42839</v>
+        <v>42879</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>148</v>
+        <v>283</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>147</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="F16" s="2">
-        <v>42866</v>
-      </c>
-      <c r="G16" s="2">
         <v>42874</v>
       </c>
       <c r="I16" s="2">
-        <v>42871</v>
+        <v>42879</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>139</v>
+        <v>265</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>140</v>
+        <v>266</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="2">
-        <v>42837</v>
+        <v>42873</v>
       </c>
       <c r="I17" s="2">
-        <v>41743</v>
+        <v>42878</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>148</v>
+        <v>273</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>151</v>
+        <v>274</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>125</v>
+        <v>261</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>126</v>
+        <v>256</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>127</v>
+        <v>262</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="2">
-        <v>42835</v>
-      </c>
-      <c r="G18" s="2"/>
+        <v>42873</v>
+      </c>
       <c r="I18" s="2">
-        <v>42835</v>
+        <v>42874</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>131</v>
+        <v>273</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>134</v>
+        <v>274</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>135</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>124</v>
+        <v>255</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2">
-        <v>42832</v>
-      </c>
-      <c r="G19" s="2"/>
+        <v>42872</v>
+      </c>
       <c r="I19" s="2">
-        <v>42839</v>
+        <v>42873</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>155</v>
+        <v>259</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>156</v>
+        <v>260</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>117</v>
+        <v>243</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>10</v>
+        <v>244</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>119</v>
+        <v>245</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="F20" s="2">
-        <v>42825</v>
+        <v>42867</v>
+      </c>
+      <c r="G20" s="2">
+        <v>42874</v>
       </c>
       <c r="I20" s="2">
-        <v>42863</v>
+        <v>42872</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>207</v>
+        <v>257</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>213</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>115</v>
+        <v>230</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>97</v>
+        <v>241</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>116</v>
+        <v>242</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="F21" s="2">
-        <v>42825</v>
+        <v>42864</v>
       </c>
       <c r="G21" s="2">
-        <v>42832</v>
+        <v>42867</v>
       </c>
       <c r="I21" s="2">
-        <v>42831</v>
+        <v>42867</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>120</v>
+        <v>249</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>121</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>108</v>
+        <v>230</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>97</v>
+        <v>234</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>112</v>
+        <v>235</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F22" s="2">
-        <v>42825</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="I22" s="2">
-        <v>42825</v>
+        <v>42866</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>113</v>
+        <v>246</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>114</v>
+        <v>247</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>103</v>
+        <v>231</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>104</v>
+        <v>232</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>105</v>
+        <v>233</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F23" s="2">
-        <v>42825</v>
+        <v>42866</v>
       </c>
       <c r="G23" s="2">
-        <v>42832</v>
+        <v>42874</v>
       </c>
       <c r="I23" s="2">
-        <v>42837</v>
+        <v>42871</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>136</v>
+        <v>251</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>137</v>
+        <v>252</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>94</v>
+        <v>225</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>97</v>
+        <v>226</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>98</v>
+        <v>227</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F24" s="2">
-        <v>42823</v>
+        <v>42864</v>
+      </c>
+      <c r="G24" s="2">
+        <v>42864</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
       </c>
       <c r="I24" s="2">
-        <v>42832</v>
+        <v>42864</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>131</v>
+        <v>228</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>128</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>94</v>
+        <v>223</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>96</v>
+        <v>224</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>50</v>
+        <v>348</v>
       </c>
       <c r="F25" s="2">
-        <v>42823</v>
-      </c>
-      <c r="G25" s="2"/>
+        <v>42864</v>
+      </c>
       <c r="I25" s="2">
-        <v>42823</v>
+        <v>42898</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>99</v>
+        <v>344</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>100</v>
+        <v>345</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>84</v>
+        <v>214</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>85</v>
+        <v>215</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>86</v>
+        <v>216</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="F26" s="2">
-        <v>42822</v>
-      </c>
-      <c r="G26" s="3">
-        <v>42826</v>
+        <v>42863</v>
       </c>
       <c r="I26" s="2">
-        <v>42822</v>
+        <v>42863</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>90</v>
+        <v>217</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>91</v>
+        <v>218</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>93</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>83</v>
+        <v>212</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="F27" s="2">
-        <v>42821</v>
-      </c>
-      <c r="G27" s="2">
-        <v>42822</v>
+        <v>42863</v>
       </c>
       <c r="I27" s="2">
-        <v>42823</v>
+        <v>42898</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>90</v>
+        <v>344</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>91</v>
+        <v>345</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>92</v>
+        <v>347</v>
       </c>
     </row>
     <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>80</v>
+        <v>209</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>82</v>
+        <v>210</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="F28" s="2">
-        <v>42821</v>
-      </c>
-      <c r="G28" s="2">
-        <v>42822</v>
-      </c>
-      <c r="H28" s="1">
-        <v>2</v>
+        <v>42863</v>
       </c>
       <c r="I28" s="2">
-        <v>42822</v>
+        <v>42864</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>87</v>
+        <v>220</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>88</v>
+        <v>221</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="F29" s="2">
-        <v>42804</v>
+        <v>42863</v>
       </c>
       <c r="I29" s="2">
-        <v>42821</v>
+        <v>42879</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>78</v>
+        <v>279</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>62</v>
+        <v>194</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>118</v>
+        <v>196</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F30" s="2">
-        <v>42818</v>
-      </c>
-      <c r="I30" s="2">
-        <v>42849</v>
+        <v>42858</v>
+      </c>
+      <c r="G30" s="2">
+        <v>42865</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>167</v>
+        <v>203</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>10</v>
+        <v>192</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>63</v>
+        <v>193</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="F31" s="2">
-        <v>42818</v>
+        <v>42858</v>
       </c>
       <c r="I31" s="2">
-        <v>42825</v>
+        <v>42859</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>111</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>59</v>
+        <v>184</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>53</v>
+        <v>185</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>60</v>
+        <v>188</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F32" s="2">
-        <v>42818</v>
+        <v>42857</v>
       </c>
       <c r="G32" s="2"/>
       <c r="I32" s="2">
-        <v>42821</v>
+        <v>42857</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>72</v>
+        <v>189</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>74</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>52</v>
+        <v>177</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>53</v>
+        <v>178</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>54</v>
+        <v>179</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>57</v>
+        <v>199</v>
       </c>
       <c r="F33" s="2">
-        <v>42814</v>
-      </c>
-      <c r="G33" s="2">
-        <v>42818</v>
-      </c>
-      <c r="H33" s="1">
-        <v>5</v>
+        <v>42852</v>
       </c>
       <c r="I33" s="2">
-        <v>42818</v>
+        <v>42853</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>58</v>
+        <v>198</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>61</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>48</v>
+        <v>175</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>49</v>
+        <v>176</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F34" s="2">
-        <v>42814</v>
-      </c>
-      <c r="G34" s="2">
-        <v>42815</v>
+        <v>42852</v>
       </c>
       <c r="I34" s="2">
-        <v>42815</v>
+        <v>42853</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>46</v>
+        <v>186</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>51</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>42</v>
+        <v>169</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>43</v>
+        <v>170</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>17</v>
+        <v>174</v>
       </c>
       <c r="F35" s="2">
-        <v>42814</v>
+        <v>42852</v>
+      </c>
+      <c r="I35" s="2">
+        <v>42852</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>128</v>
+        <v>172</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="F36" s="2">
-        <v>42814</v>
-      </c>
-      <c r="G36" s="2"/>
+        <v>42846</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1</v>
+      </c>
       <c r="I36" s="2">
-        <v>42818</v>
+        <v>42849</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>68</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>37</v>
+        <v>157</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>38</v>
+        <v>158</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="F37" s="2">
-        <v>42814</v>
-      </c>
-      <c r="G37" s="2"/>
-      <c r="I37" s="2">
-        <v>42814</v>
+        <v>42842</v>
+      </c>
+      <c r="G37" s="2">
+        <v>42853</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>46</v>
+        <v>200</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>68</v>
+        <v>197</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F38" s="2">
-        <v>42812</v>
+        <v>42839</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>131</v>
+        <v>236</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>132</v>
+        <v>237</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>133</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="F39" s="2">
-        <v>42812</v>
-      </c>
-      <c r="G39" s="2">
-        <v>42812</v>
+        <v>42839</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1</v>
       </c>
       <c r="I39" s="2">
-        <v>42812</v>
+        <v>42839</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>50</v>
+        <v>149</v>
       </c>
       <c r="F40" s="2">
-        <v>42810</v>
-      </c>
-      <c r="G40" s="2"/>
+        <v>42839</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1</v>
+      </c>
+      <c r="I40" s="2">
+        <v>42839</v>
+      </c>
       <c r="J40" s="1" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>17</v>
+        <v>240</v>
       </c>
       <c r="F41" s="2">
-        <v>42811</v>
-      </c>
-      <c r="G41" s="2">
-        <v>42818</v>
-      </c>
-      <c r="I41" s="2">
-        <v>42818</v>
+        <v>42837</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>55</v>
+        <v>236</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>70</v>
+        <v>238</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>56</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="F42" s="2">
-        <v>42808</v>
-      </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="1">
-        <v>3</v>
+        <v>42837</v>
       </c>
       <c r="I42" s="2">
-        <v>42815</v>
+        <v>41743</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F43" s="2">
-        <v>42808</v>
-      </c>
-      <c r="G43" s="2">
-        <v>42816</v>
-      </c>
-      <c r="H43" s="1">
-        <v>2</v>
-      </c>
+        <v>42835</v>
+      </c>
+      <c r="G43" s="2"/>
       <c r="I43" s="2">
-        <v>42814</v>
+        <v>42835</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F44" s="2">
-        <v>42808</v>
-      </c>
-      <c r="G44" s="2">
-        <v>42816</v>
-      </c>
-      <c r="H44" s="1">
-        <v>2</v>
-      </c>
+        <v>42832</v>
+      </c>
+      <c r="G44" s="2"/>
       <c r="I44" s="2">
-        <v>42810</v>
+        <v>42839</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>23</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>183</v>
+        <v>17</v>
       </c>
       <c r="F45" s="2">
-        <v>42807</v>
+        <v>42825</v>
       </c>
       <c r="I45" s="2">
-        <v>42853</v>
+        <v>42863</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="F46" s="2">
-        <v>42804</v>
+        <v>42825</v>
       </c>
       <c r="G46" s="2">
-        <v>42811</v>
+        <v>42832</v>
       </c>
       <c r="I46" s="2">
-        <v>42818</v>
+        <v>42831</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F47" s="3">
-        <v>42767</v>
+      <c r="F47" s="2">
+        <v>42825</v>
       </c>
       <c r="G47" s="2"/>
       <c r="I47" s="2">
-        <v>42821</v>
+        <v>42825</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" s="2">
+        <v>42825</v>
+      </c>
+      <c r="G48" s="2">
+        <v>42832</v>
+      </c>
+      <c r="I48" s="2">
+        <v>42837</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="1">
+        <v>25</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F48" s="2">
-        <v>42807</v>
-      </c>
-      <c r="G48" s="2"/>
-      <c r="I48" s="2">
-        <v>42811</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A49" s="1">
-        <v>56</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="F49" s="2">
-        <v>42873</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+        <v>42823</v>
+      </c>
+      <c r="I49" s="2">
+        <v>42832</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>266</v>
+        <v>95</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>267</v>
+        <v>96</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>260</v>
+        <v>50</v>
       </c>
       <c r="F50" s="2">
-        <v>42873</v>
+        <v>42823</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="I50" s="2">
+        <v>42823</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>230</v>
+        <v>84</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>241</v>
+        <v>85</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>242</v>
+        <v>86</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="F51" s="2">
-        <v>42864</v>
-      </c>
-      <c r="G51" s="2">
-        <v>42867</v>
+        <v>42822</v>
+      </c>
+      <c r="G51" s="3">
+        <v>42826</v>
       </c>
       <c r="I51" s="2">
-        <v>42867</v>
+        <v>42822</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>249</v>
+        <v>90</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>250</v>
+        <v>91</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>154</v>
+        <v>83</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="F52" s="2">
-        <v>42839</v>
+        <v>42821</v>
+      </c>
+      <c r="G52" s="2">
+        <v>42822</v>
+      </c>
+      <c r="I52" s="2">
+        <v>42823</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>236</v>
+        <v>90</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>237</v>
+        <v>91</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>239</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>240</v>
+        <v>89</v>
       </c>
       <c r="F53" s="2">
-        <v>42837</v>
+        <v>42821</v>
+      </c>
+      <c r="G53" s="2">
+        <v>42822</v>
+      </c>
+      <c r="H53" s="1">
+        <v>2</v>
+      </c>
+      <c r="I53" s="2">
+        <v>42822</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>236</v>
+        <v>87</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>211</v>
+        <v>75</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>208</v>
+        <v>40</v>
       </c>
       <c r="F54" s="2">
-        <v>42863</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+        <v>42804</v>
+      </c>
+      <c r="I54" s="2">
+        <v>42821</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>223</v>
+        <v>62</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>224</v>
+        <v>118</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>221</v>
+        <v>17</v>
       </c>
       <c r="F55" s="2">
-        <v>42864</v>
+        <v>42818</v>
+      </c>
+      <c r="I55" s="2">
+        <v>42849</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>243</v>
+        <v>62</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>244</v>
+        <v>10</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>245</v>
+        <v>63</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="F56" s="2">
-        <v>42867</v>
-      </c>
-      <c r="G56" s="2">
-        <v>42874</v>
+        <v>42818</v>
       </c>
       <c r="I56" s="2">
-        <v>42872</v>
+        <v>42825</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>257</v>
+        <v>109</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>258</v>
+        <v>110</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>254</v>
+        <v>59</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>256</v>
+        <v>53</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>255</v>
+        <v>60</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F57" s="2">
-        <v>42872</v>
-      </c>
+        <v>42818</v>
+      </c>
+      <c r="G57" s="2"/>
       <c r="I57" s="2">
-        <v>42873</v>
+        <v>42821</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>259</v>
+        <v>72</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>260</v>
+        <v>73</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
+        <v>16</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F58" s="2">
+        <v>42814</v>
+      </c>
+      <c r="G58" s="2">
+        <v>42818</v>
+      </c>
+      <c r="H58" s="1">
+        <v>5</v>
+      </c>
+      <c r="I58" s="2">
+        <v>42818</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="1">
+        <v>15</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F59" s="2">
+        <v>42814</v>
+      </c>
+      <c r="G59" s="2">
+        <v>42815</v>
+      </c>
+      <c r="I59" s="2">
+        <v>42815</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="1">
+        <v>14</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" s="2">
+        <v>42814</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="1">
+        <v>13</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" s="2">
+        <v>42814</v>
+      </c>
+      <c r="G61" s="2"/>
+      <c r="I61" s="2">
+        <v>42818</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="1">
+        <v>12</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F62" s="2">
+        <v>42814</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="I62" s="2">
+        <v>42814</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="1">
+        <v>11</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="2">
+        <v>42812</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="1">
+        <v>10</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F64" s="2">
+        <v>42812</v>
+      </c>
+      <c r="G64" s="2">
+        <v>42812</v>
+      </c>
+      <c r="I64" s="2">
+        <v>42812</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="1">
+        <v>9</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F65" s="2">
+        <v>42810</v>
+      </c>
+      <c r="G65" s="2"/>
+      <c r="J65" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="1">
+        <v>8</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66" s="2">
+        <v>42811</v>
+      </c>
+      <c r="G66" s="2">
+        <v>42818</v>
+      </c>
+      <c r="I66" s="2">
+        <v>42818</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="1">
+        <v>7</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F67" s="2">
+        <v>42808</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="1">
+        <v>3</v>
+      </c>
+      <c r="I67" s="2">
+        <v>42815</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="1">
+        <v>6</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" s="2">
+        <v>42808</v>
+      </c>
+      <c r="G68" s="2">
+        <v>42816</v>
+      </c>
+      <c r="H68" s="1">
+        <v>2</v>
+      </c>
+      <c r="I68" s="2">
+        <v>42814</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L68" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E58" s="1" t="s">
+    </row>
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="1">
+        <v>5</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" s="2">
+        <v>42808</v>
+      </c>
+      <c r="G69" s="2">
+        <v>42816</v>
+      </c>
+      <c r="H69" s="1">
+        <v>2</v>
+      </c>
+      <c r="I69" s="2">
+        <v>42810</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="1">
+        <v>4</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F70" s="2">
+        <v>42807</v>
+      </c>
+      <c r="I70" s="2">
+        <v>42853</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K70" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F58" s="2">
-        <v>42863</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F59" s="2">
-        <v>42874</v>
+      <c r="L70" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="1">
+        <v>3</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F71" s="2">
+        <v>42804</v>
+      </c>
+      <c r="G71" s="2">
+        <v>42811</v>
+      </c>
+      <c r="I71" s="2">
+        <v>42818</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="1">
+        <v>2</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72" s="3">
+        <v>42767</v>
+      </c>
+      <c r="G72" s="2"/>
+      <c r="I72" s="2">
+        <v>42821</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="1">
+        <v>1</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F73" s="2">
+        <v>42807</v>
+      </c>
+      <c r="G73" s="2"/>
+      <c r="I73" s="2">
+        <v>42811</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A74" s="1">
+        <v>76</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F74" s="2">
+        <v>42905</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="1">
+        <v>77</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F75" s="2">
+        <v>42905</v>
+      </c>
+      <c r="I75" s="2">
+        <v>42905</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F76" s="2">
+        <v>42905</v>
+      </c>
+      <c r="I76" s="2">
+        <v>42905</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="1">
+        <v>78</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F77" s="2">
+        <v>42905</v>
+      </c>
+      <c r="I77" s="2">
+        <v>42905</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A78" s="1">
+        <v>66</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F78" s="2">
+        <v>42886</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A79" s="1">
+        <v>67</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F79" s="2">
+        <v>42888</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L57">
+  <autoFilter ref="A1:L79">
     <filterColumn colId="4">
       <filters>
         <filter val="A"/>
         <filter val="B"/>
-        <filter val="D"/>
       </filters>
     </filterColumn>
-    <sortState ref="A49:L58">
-      <sortCondition ref="E1:E57"/>
+    <sortState ref="A8:L79">
+      <sortCondition ref="E1:E79"/>
     </sortState>
   </autoFilter>
   <sortState ref="A1:H1">
@@ -3366,7 +4461,7 @@
   </sortState>
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:L998">
+  <conditionalFormatting sqref="A2:L997">
     <cfRule type="expression" dxfId="4" priority="2">
       <formula>$E2="D"</formula>
     </cfRule>
@@ -3383,6 +4478,9 @@
       <formula>$E2="A"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="D79" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
